--- a/medicine/Enfance/Never_Say_Die_(roman)/Never_Say_Die_(roman).xlsx
+++ b/medicine/Enfance/Never_Say_Die_(roman)/Never_Say_Die_(roman).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Never Say Die est le onzième roman de la série Alex Rider écrite par Anthony Horowitz. Il a été publié le 1er juin 2017 au Royaume-Uni puis le 27 septembre 2017 en France.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après la mort de Jack, Alex Rider, dévasté, s’est installé à San Francisco où il tente de se remettre. Mais pour l’ancien espion du MI6, la vie loin du feu de l’action n’est pas si facile. De l’autre côté de l’Atlantique, un hélicoptère militaire, le Super Stallion, s’est volatilisé. Au même moment, Alex reçoit un mail qui pourrait avoir été écrit par Jack. Il en est convaincu : son amie est vivante. Sans en avertir le MI6, il part à sa recherche… sans se douter que cette quête le mettrait sur la piste des voleurs de l’hélicoptère.
 </t>
@@ -543,7 +557,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
  Portail de la littérature britannique   Portail de la littérature d’enfance et de jeunesse                    </t>
